--- a/teaching/traditional_assets/database/data/pakistan/pakistan_engineering_construction.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_engineering_construction.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.08890000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.6709999999999999</v>
+        <v>-0.0806</v>
       </c>
       <c r="G2">
-        <v>0.02857142857142857</v>
+        <v>-0.01219512195121951</v>
       </c>
       <c r="H2">
-        <v>0.02857142857142857</v>
+        <v>-0.01219512195121951</v>
       </c>
       <c r="I2">
-        <v>0.0126984126984127</v>
+        <v>-0.03089430894308943</v>
       </c>
       <c r="J2">
-        <v>0.009285255528030095</v>
+        <v>-0.01800315844885068</v>
       </c>
       <c r="K2">
-        <v>0.252</v>
+        <v>0.162</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +633,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="V2">
-        <v>0.005504587155963302</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="W2">
-        <v>0.05384615384615385</v>
+        <v>0.03454157782515991</v>
       </c>
       <c r="X2">
-        <v>0.1192320580702714</v>
+        <v>0.09379303256626192</v>
       </c>
       <c r="Y2">
-        <v>-0.06538590422411754</v>
+        <v>-0.05925145474110202</v>
       </c>
       <c r="Z2">
-        <v>0.2568283734203017</v>
+        <v>0.2514309076042518</v>
       </c>
       <c r="AA2">
-        <v>0.002384717074055834</v>
+        <v>-0.00452655046853768</v>
       </c>
       <c r="AB2">
-        <v>0.1147099897509799</v>
+        <v>0.09379303256626192</v>
       </c>
       <c r="AC2">
-        <v>-0.112325272676924</v>
+        <v>-0.09831958303479961</v>
       </c>
       <c r="AD2">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.185</v>
+        <v>-0.005</v>
       </c>
       <c r="AH2">
-        <v>0.08287757677745057</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.04132578141388714</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.07822410147991543</v>
+        <v>-0.002178649237472767</v>
       </c>
       <c r="AK2">
-        <v>0.03890641430073607</v>
+        <v>-0.001055966209081309</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.472222222222223</v>
+        <v>-0</v>
       </c>
       <c r="AP2">
-        <v>5.138888888888889</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="3">
@@ -716,28 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08890000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.6709999999999999</v>
+        <v>-0.0806</v>
       </c>
       <c r="G3">
-        <v>0.02857142857142857</v>
+        <v>-0.01219512195121951</v>
       </c>
       <c r="H3">
-        <v>0.02857142857142857</v>
+        <v>-0.01219512195121951</v>
       </c>
       <c r="I3">
-        <v>0.0126984126984127</v>
+        <v>-0.03089430894308943</v>
       </c>
       <c r="J3">
-        <v>0.009285255528030095</v>
+        <v>-0.01800315844885068</v>
       </c>
       <c r="K3">
-        <v>0.252</v>
+        <v>0.162</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.1317073170731707</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="V3">
-        <v>0.005504587155963302</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="W3">
-        <v>0.05384615384615385</v>
+        <v>0.03454157782515991</v>
       </c>
       <c r="X3">
-        <v>0.1192320580702714</v>
+        <v>0.09379303256626192</v>
       </c>
       <c r="Y3">
-        <v>-0.06538590422411754</v>
+        <v>-0.05925145474110202</v>
       </c>
       <c r="Z3">
-        <v>0.2568283734203017</v>
+        <v>0.2514309076042518</v>
       </c>
       <c r="AA3">
-        <v>0.002384717074055834</v>
+        <v>-0.00452655046853768</v>
       </c>
       <c r="AB3">
-        <v>0.1147099897509799</v>
+        <v>0.09379303256626192</v>
       </c>
       <c r="AC3">
-        <v>-0.112325272676924</v>
+        <v>-0.09831958303479961</v>
       </c>
       <c r="AD3">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.185</v>
+        <v>-0.005</v>
       </c>
       <c r="AH3">
-        <v>0.08287757677745057</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.04132578141388714</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.07822410147991543</v>
+        <v>-0.002178649237472767</v>
       </c>
       <c r="AK3">
-        <v>0.03890641430073607</v>
+        <v>-0.001055966209081309</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.472222222222223</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>5.138888888888889</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
   </sheetData>
